--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Sarcoidosis_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Sarcoidosis_gen_overall.xlsx
@@ -462,22 +462,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Persistent cough</t>
+          <t>Persistent dry cough</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A persistent cough is a common symptom in patients with Sarcoidosis due to pulmonary involvement.</t>
+          <t>A persistent dry cough is a common symptom in sarcoidosis due to pulmonary involvement, which is present in over 90% of cases.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recent travel to endemic areas for other diseases</t>
+          <t>Absence of respiratory symptoms</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Recent travel to areas endemic for diseases like tuberculosis or histoplasmosis may suggest alternative diagnoses.</t>
+          <t>The absence of respiratory symptoms such as cough or dyspnea makes pulmonary sarcoidosis less likely.</t>
         </is>
       </c>
     </row>
@@ -489,83 +489,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Shortness of breath is frequently reported in Sarcoidosis patients, particularly when lung tissue is affected.</t>
+          <t>Shortness of breath is frequently reported in sarcoidosis patients, often due to lung involvement.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Acute onset of symptoms</t>
+          <t>No skin lesions</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sarcoidosis typically has a gradual onset; acute symptoms may indicate other conditions.</t>
+          <t>The absence of skin lesions like erythema nodosum reduces the likelihood of sarcoidosis, which often presents with such findings.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fatigue</t>
+          <t>Erythema nodosum</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fatigue is a prevalent symptom in Sarcoidosis, often due to systemic inflammation.</t>
+          <t>Erythema nodosum is a specific skin manifestation that is strongly associated with sarcoidosis, especially in acute presentations.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of respiratory symptoms</t>
+          <t>No lymphadenopathy</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A lack of respiratory symptoms makes Sarcoidosis less likely, as lung involvement is common.</t>
+          <t>The absence of lymphadenopathy, particularly hilar, is atypical for sarcoidosis, which commonly presents with this finding.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Weight loss</t>
+          <t>Bilateral hilar lymphadenopathy</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Unintentional weight loss can occur in Sarcoidosis due to chronic inflammation and metabolic changes.</t>
+          <t>Bilateral hilar lymphadenopathy is a classic radiological finding in sarcoidosis, often correlating with symptoms in the HPI.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal chest X-ray</t>
+          <t>Rapid symptom resolution</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A normal chest X-ray is less consistent with Sarcoidosis, which often shows pulmonary nodules or infiltrates.</t>
+          <t>Rapid resolution of symptoms is uncommon in sarcoidosis, which typically has a more chronic course.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Skin lesions</t>
+          <t>Fatigue</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Skin lesions, such as erythema nodosum or lupus pernio, are specific findings associated with Sarcoidosis.</t>
+          <t>Fatigue is a common systemic symptom in sarcoidosis, reflecting the chronic inflammatory nature of the disease.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Presence of fever</t>
+          <t>No systemic symptoms</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fever is not a typical feature of Sarcoidosis and may suggest an infectious or inflammatory process.</t>
+          <t>The absence of systemic symptoms such as fatigue or fever is less consistent with sarcoidosis, which often presents with such symptoms.</t>
         </is>
       </c>
     </row>
@@ -613,12 +613,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of respiratory symptoms such as cough or dyspnea</t>
+          <t>History of erythema nodosum</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Respiratory symptoms are common in sarcoidosis due to pulmonary involvement, making this a strong indicator.</t>
+          <t>Erythema nodosum is a common dermatological manifestation associated with sarcoidosis, indicating granulomatous inflammation.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -628,95 +628,95 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Smoking is more commonly associated with other respiratory diseases and can decrease the likelihood of sarcoidosis.</t>
+          <t>Smoking is generally considered to be inversely related to the development of sarcoidosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous diagnosis of granulomatous disease</t>
+          <t>Previous diagnosis of uveitis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Granulomatous diseases, including sarcoidosis, share similar histological features, suggesting a predisposition.</t>
+          <t>Uveitis is an ocular condition frequently associated with sarcoidosis due to granulomatous inflammation in the eye.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of systemic symptoms such as fever or weight loss</t>
+          <t>Previous diagnosis of chronic obstructive pulmonary disease (COPD)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of systemic symptoms often seen in sarcoidosis patients suggests a lower likelihood of the disease.</t>
+          <t>COPD is not typically associated with sarcoidosis and may suggest an alternative pulmonary pathology.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Use of corticosteroids for treatment of respiratory issues</t>
+          <t>History of bilateral hilar lymphadenopathy</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Corticosteroids are often used to manage sarcoidosis, indicating a possible prior diagnosis.</t>
+          <t>Bilateral hilar lymphadenopathy is a classic radiological finding in sarcoidosis, often identified in past medical imaging.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Previous negative biopsy for granulomatous inflammation</t>
+          <t>History of tuberculosis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A negative biopsy result significantly reduces the likelihood of sarcoidosis being present.</t>
+          <t>Tuberculosis can mimic sarcoidosis clinically and radiologically, making it a differential diagnosis rather than a supporting factor.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of sarcoidosis or other autoimmune diseases</t>
+          <t>Previous treatment with corticosteroids for granulomatous disease</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A familial predisposition can increase the likelihood of sarcoidosis, supporting the diagnosis.</t>
+          <t>Corticosteroids are commonly used to treat sarcoidosis, especially when there is significant organ involvement.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of other known lung diseases such as COPD or asthma</t>
+          <t>Long-term use of immunosuppressive therapy for another condition</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Other lung diseases can mimic symptoms of sarcoidosis, making it less likely if these are present.</t>
+          <t>Chronic immunosuppression may reduce the likelihood of developing sarcoidosis due to its effect on the immune system.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of erythema nodosum or other skin lesions</t>
+          <t>History of hypercalcemia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Erythema nodosum is a common skin manifestation of sarcoidosis, making it a relevant finding.</t>
+          <t>Hypercalcemia can occur in sarcoidosis due to increased production of vitamin D by activated macrophages in granulomas.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of ocular symptoms such as uveitis</t>
+          <t>History of lung cancer</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ocular involvement is common in sarcoidosis; its absence can indicate a lower likelihood of the disease.</t>
+          <t>Lung cancer can present with similar symptoms and radiological findings, serving as a differential diagnosis rather than supporting sarcoidosis.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Family history of autoimmune diseases</t>
+          <t>Family history of Sarcoidosis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sarcoidosis has a genetic component, and a family history of autoimmune diseases may indicate a predisposition to conditions like sarcoidosis.</t>
+          <t>Sarcoidosis can have a genetic component, and a family history increases the likelihood of the disease.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No known family history of sarcoidosis or related conditions</t>
+          <t>No family history of Sarcoidosis</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of family history reduces the likelihood of a genetic predisposition to sarcoidosis.</t>
+          <t>The absence of a family history reduces the likelihood of a genetic predisposition to Sarcoidosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Exposure to certain environmental factors (e.g., mold, dust, chemicals)</t>
+          <t>African American ethnicity</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Certain environmental exposures are known to increase the risk of developing sarcoidosis, making this a relevant social history factor.</t>
+          <t>Sarcoidosis is more prevalent in African Americans compared to other ethnic groups.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No exposure to known environmental triggers</t>
+          <t>Caucasian ethnicity</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of exposure to environmental factors that are known to increase the risk of sarcoidosis suggests a lower likelihood of the disease.</t>
+          <t>Sarcoidosis is less prevalent in Caucasians compared to African Americans, reducing the likelihood of the disease.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Living in or having lived in areas with high incidence of sarcoidosis</t>
+          <t>Scandinavian descent</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Geographic location can influence the likelihood of sarcoidosis, with certain regions having higher prevalence rates.</t>
+          <t>Sarcoidosis is more common in individuals of Scandinavian descent, suggesting a genetic predisposition.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engagement in healthy lifestyle behaviors (e.g., non-smoker, regular exercise)</t>
+          <t>Male gender</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Healthy lifestyle choices are generally associated with lower risks of many diseases, including sarcoidosis.</t>
+          <t>Sarcoidosis is slightly less common in males, which may suggest a lower predisposition.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Occupation in healthcare or firefighting</t>
+          <t>Female gender</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Certain occupations are associated with higher exposure to agents that may trigger sarcoidosis, supporting the diagnosis.</t>
+          <t>Sarcoidosis is slightly more common in females, which may suggest a gender-related predisposition.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No history of respiratory illnesses in family</t>
+          <t>Smoker</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A lack of respiratory illnesses in the family may indicate a lower risk for conditions like sarcoidosis.</t>
+          <t>Smoking has been associated with a lower incidence of sarcoidosis, which may reduce the likelihood of the disease.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of respiratory symptoms in family members</t>
+          <t>Non-smoker</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Respiratory symptoms in family members may suggest a genetic predisposition to conditions like sarcoidosis, supporting the diagnosis.</t>
+          <t>Some studies suggest that non-smokers may have a higher risk of developing sarcoidosis compared to smokers.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Living in a region with low incidence of sarcoidosis</t>
+          <t>Asian ethnicity</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Geographic factors play a role in the prevalence of sarcoidosis; living in a low-incidence area suggests a lower likelihood of the disease.</t>
+          <t>Sarcoidosis is less common in Asian populations, which decreases the likelihood of the disease.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lymphadenopathy</t>
+          <t>Bilateral hilar lymphadenopathy</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lymphadenopathy is a common physical exam finding in patients with Sarcoidosis, often presenting as enlarged lymph nodes, particularly in the mediastinum.</t>
+          <t>This is a classic finding in sarcoidosis, often seen on chest imaging, and can be palpated as enlarged lymph nodes in the chest area.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal vital signs</t>
+          <t>Absence of lymphadenopathy</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal vital signs, including temperature, heart rate, and respiratory rate, suggest that there is no significant systemic illness, which is less consistent with Sarcoidosis.</t>
+          <t>The absence of lymphadenopathy, especially in the hilar region, makes sarcoidosis less likely.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Skin lesions (e.g., erythema nodosum)</t>
+          <t>Erythema nodosum</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Skin lesions such as erythema nodosum are frequently associated with Sarcoidosis and can be observed during a physical exam.</t>
+          <t>This is a skin condition characterized by red nodules, often on the shins, and is commonly associated with sarcoidosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of respiratory distress</t>
+          <t>Normal skin examination</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of respiratory distress during a physical exam indicates that lung function is likely normal, which is less common in Sarcoidosis.</t>
+          <t>A normal skin examination without any nodules or lesions reduces the likelihood of sarcoidosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pulmonary findings (e.g., crackles, wheezing)</t>
+          <t>Lupus pernio</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pulmonary findings such as crackles or wheezing are indicative of lung involvement in Sarcoidosis, which is a common manifestation of the disease.</t>
+          <t>This is a specific skin lesion associated with sarcoidosis, presenting as chronic, violaceous, raised lesions on the face.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No skin lesions</t>
+          <t>No respiratory symptoms</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of skin lesions suggests that there is no dermatological involvement, which is often seen in Sarcoidosis.</t>
+          <t>The absence of respiratory symptoms such as cough or dyspnea is less common in sarcoidosis, which often affects the lungs.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ocular findings (e.g., uveitis)</t>
+          <t>Uveitis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ocular findings such as uveitis can be present in Sarcoidosis and are important objective findings during an eye examination.</t>
+          <t>Inflammation of the uvea in the eye is a common manifestation in sarcoidosis patients.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Clear lung auscultation</t>
+          <t>Normal eye examination</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Clear lung auscultation findings indicate that there is no pulmonary involvement, which is a common feature of Sarcoidosis.</t>
+          <t>A normal eye examination without signs of uveitis or other ocular involvement argues against sarcoidosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fever</t>
+          <t>Parotid gland enlargement</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fever can be a systemic manifestation of Sarcoidosis, indicating an inflammatory process.</t>
+          <t>Enlargement of the parotid glands is a physical exam finding that can occur in sarcoidosis due to granulomatous inflammation.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No lymphadenopathy</t>
+          <t>No joint swelling or pain</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of lymphadenopathy suggests that there is no granulomatous inflammation, which is a hallmark of Sarcoidosis.</t>
+          <t>The absence of joint symptoms, which can occur in sarcoidosis, makes the diagnosis less likely.</t>
         </is>
       </c>
     </row>
@@ -1066,66 +1066,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Elevated serum angiotensin-converting enzyme (ACE) levels</t>
+          <t>Bilateral hilar lymphadenopathy on chest X-ray</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ACE levels are often elevated in patients with Sarcoidosis due to granuloma formation, making this a strong indicator of the disease.</t>
+          <t>This is a classic radiographic finding in sarcoidosis, highly specific for the disease.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Negative tuberculin skin test</t>
+          <t>Normal chest X-ray</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A negative result on the tuberculin skin test suggests that tuberculosis is not the cause of symptoms, which can be confused with Sarcoidosis.</t>
+          <t>A normal chest X-ray is less likely in sarcoidosis, where bilateral hilar lymphadenopathy is common.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chest X-ray showing bilateral hilar lymphadenopathy</t>
+          <t>Elevated serum angiotensin-converting enzyme (ACE) levels</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bilateral hilar lymphadenopathy is a classic radiographic finding in Sarcoidosis, supporting the diagnosis.</t>
+          <t>Elevated ACE levels are commonly associated with sarcoidosis, although not exclusively.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal serum calcium levels</t>
+          <t>Negative biopsy for granulomas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal serum calcium levels reduce the likelihood of Sarcoidosis, as hypercalcemia is often associated with the disease.</t>
+          <t>The absence of granulomas on biopsy makes sarcoidosis less likely, as granulomas are a key feature.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lung biopsy showing non-caseating granulomas</t>
+          <t>Non-caseating granulomas on biopsy</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The presence of non-caseating granulomas on biopsy is a definitive histological finding in Sarcoidosis.</t>
+          <t>The presence of non-caseating granulomas is a hallmark of sarcoidosis, distinguishing it from other granulomatous diseases.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Negative bronchoalveolar lavage (BAL) for atypical lymphocytes</t>
+          <t>Normal serum ACE levels</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A negative BAL for atypical lymphocytes suggests that other conditions, such as infections or malignancies, are more likely than Sarcoidosis.</t>
+          <t>Normal ACE levels reduce the likelihood of sarcoidosis, as elevated levels are often seen in the disease.</t>
         </is>
       </c>
     </row>
@@ -1137,39 +1137,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hypercalcemia can occur in Sarcoidosis due to increased vitamin D production by granulomas, indicating the disease.</t>
+          <t>Hypercalcemia can occur in sarcoidosis due to increased production of vitamin D by macrophages in granulomas.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal chest CT scan</t>
+          <t>Absence of hypercalcemia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A normal chest CT scan decreases the likelihood of Sarcoidosis, as characteristic findings would typically be present.</t>
+          <t>The absence of hypercalcemia makes sarcoidosis less likely, as it is a common metabolic disturbance in the disease.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pulmonary function tests showing restrictive lung disease</t>
+          <t>Pulmonary function tests showing restrictive pattern</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Restrictive lung disease patterns are common in Sarcoidosis due to pulmonary involvement, supporting the diagnosis.</t>
+          <t>A restrictive pattern on pulmonary function tests is consistent with pulmonary involvement in sarcoidosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Negative serum ACE levels</t>
+          <t>Pulmonary function tests showing obstructive pattern</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Negative serum ACE levels suggest that Sarcoidosis is less likely, as elevated levels are commonly seen in affected individuals.</t>
+          <t>An obstructive pattern on pulmonary function tests is atypical for sarcoidosis, which usually shows a restrictive pattern.</t>
         </is>
       </c>
     </row>
